--- a/biology/Botanique/Eremitis/Eremitis.xlsx
+++ b/biology/Botanique/Eremitis/Eremitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremitis est un genre de plantes à fleurs monocotylédones de la famille des Poaceae et de la sous-famille des Bambusoideae, originaire d'Amérique du Sud, qui comprend de une à cinq espèces selon les auteurs.
 Ce sont des plantes herbacées, vivaces, certaines rhizomateuses, aux tiges dressées ou décombantes de 50 à 130 cm de long. Les inflorescences sont composées de racèmes regroupant des épillets mâles et femelles distincts (espèce monoïque). Ce genre, qui appartient à la lignée des bambous herbacés (tribu des Olyreae), est endémique du Brésil où il se rencontre dans les forêts pluviales à faible altitude dans la région de Bahia.
@@ -512,15 +524,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 juin 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (3 juin 2018) :
 Eremitis afimbriata F.M.Ferreira &amp; R.P.Oliveira (2013)
 Eremitis linearifolia Hollowell, F.M.Ferreira &amp; R.P.Oliveira (2016)
 Eremitis magnifica F.M.Ferreira &amp; R.P.Oliveira (2013)
 Eremitis parviflora (Trin.) C.E.Calderón ex Soderstr. (1980)
 Eremitis robusta Hollowell, F.M.Ferreira &amp; R.P.Oliveira (2016)
-Selon The Plant List            (3 juin 2018)[3] :
+Selon The Plant List            (3 juin 2018) :
 Eremitis parviflora (Trin.) C.E.Calderón ex Soderstr.</t>
         </is>
       </c>
